--- a/metadata_files/06_metadata_phenology/01_WORKING_monthly_datatypes/White-capped Albatross_Auckland Islands.xlsx
+++ b/metadata_files/06_metadata_phenology/01_WORKING_monthly_datatypes/White-capped Albatross_Auckland Islands.xlsx
@@ -2907,13 +2907,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DEEE0C15-7B45-4544-9379-1FDE76CDED11}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F80CD2A2-6D13-4607-912C-DDF27322D3B9}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C157BDCB-EA83-43F2-A0F3-989FDDD47C03}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{56E4848C-4E94-4094-88E9-6091D8FF3957}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7D0D0413-E175-416C-A32D-5705840E76F6}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{89C2DC70-6B13-40A4-A35C-A3FABB9CDADF}"/>
 </file>